--- a/Testdata/TC_Chart_87.xlsx
+++ b/Testdata/TC_Chart_87.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksathish\git\cucumber\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C95583-2398-48A9-A4AB-336D6CB27EF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,12 +19,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Periyasamy, Sathish (CEIC/EMIS)</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{371273C4-63A7-473C-BD6D-0565A02D1743}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -148,7 +147,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
     <numFmt numFmtId="165" formatCode="yyyy"/>
@@ -327,23 +326,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -379,23 +361,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -571,11 +536,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,7 +971,15 @@
         <v>43800</v>
       </c>
       <c r="B54" s="1">
-        <v>41000</v>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>44166</v>
+      </c>
+      <c r="B55" s="1">
+        <v>33000</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/TC_Chart_87.xlsx
+++ b/Testdata/TC_Chart_87.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksathish\git\cucumber\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C95583-2398-48A9-A4AB-336D6CB27EF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Periyasamy, Sathish (CEIC/EMIS)</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{371273C4-63A7-473C-BD6D-0565A02D1743}">
       <text>
         <r>
           <rPr>
@@ -147,7 +148,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
     <numFmt numFmtId="165" formatCode="yyyy"/>
@@ -326,6 +327,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -361,6 +379,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -536,11 +571,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,15 +1006,7 @@
         <v>43800</v>
       </c>
       <c r="B54" s="1">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>44166</v>
-      </c>
-      <c r="B55" s="1">
-        <v>33000</v>
+        <v>41000</v>
       </c>
     </row>
   </sheetData>
